--- a/Requirements/FirstFireMenusPseudoCode.xlsx
+++ b/Requirements/FirstFireMenusPseudoCode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="122">
   <si>
     <t>20x4 Character Display</t>
   </si>
@@ -370,6 +370,27 @@
   </si>
   <si>
     <t>Main Menu Pump Monitor Screen</t>
+  </si>
+  <si>
+    <t>(5)</t>
+  </si>
+  <si>
+    <t>Code shall have a bypass mode to disable thermocouple</t>
+  </si>
+  <si>
+    <t>interlock on activating Solenoid #1 &amp; #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default code shall have thermocouple bypass mode </t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>(6)</t>
+  </si>
+  <si>
+    <t>Added requirement for a software bypass mode for thermocouples</t>
   </si>
 </sst>
 </file>
@@ -830,6 +851,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -872,12 +899,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1226,7 +1247,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1278,12 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="39">
+        <v>42316</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
@@ -1526,16 +1552,16 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="76" t="s">
+      <c r="Z11" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="AA11" s="74">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="72" t="s">
+      <c r="AA11" s="80">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="78" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1543,10 +1569,10 @@
       <c r="C12" t="s">
         <v>78</v>
       </c>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="73"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="79"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17"/>
@@ -2149,25 +2175,25 @@
       <c r="C11" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="69"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
       <c r="AB11" s="11"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C12" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
       <c r="AB12" s="17"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C13" s="42"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="77"/>
       <c r="AB13" s="17"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -2308,22 +2334,22 @@
       <c r="H4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="L4" s="88" t="s">
+      <c r="L4" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="88" t="s">
+      <c r="M4" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="74" t="s">
         <v>49</v>
       </c>
       <c r="O4" s="64"/>
@@ -2343,38 +2369,38 @@
         <v>2</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="87" t="s">
+      <c r="H5" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87" t="s">
+      <c r="I5" s="73"/>
+      <c r="J5" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="87" t="s">
+      <c r="K5" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="87" t="s">
+      <c r="L5" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="87" t="s">
+      <c r="O5" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="87" t="s">
+      <c r="P5" s="73" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="27"/>
@@ -2467,25 +2493,25 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C11"/>
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="76" t="s">
+      <c r="Z11" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="AA11" s="74">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="72" t="s">
+      <c r="AA11" s="80">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="78" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C12"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="73"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="79"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C13"/>
@@ -2630,7 +2656,7 @@
         <v>25</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="72" t="s">
         <v>86</v>
       </c>
       <c r="L4" s="44" t="s">
@@ -2649,13 +2675,13 @@
       <c r="Q4" s="44"/>
       <c r="R4" s="44"/>
       <c r="S4" s="61"/>
-      <c r="T4" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="U4" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="V4" s="85" t="s">
+      <c r="T4" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="71" t="s">
         <v>8</v>
       </c>
       <c r="W4" s="29"/>
@@ -2840,16 +2866,16 @@
       <c r="C11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="76" t="s">
+      <c r="Z11" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="AA11" s="74">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="72" t="s">
+      <c r="AA11" s="80">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="78" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2857,10 +2883,10 @@
       <c r="C12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="73"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="79"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
@@ -2869,13 +2895,13 @@
       <c r="C13" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Y13" s="78" t="s">
+      <c r="Y13" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="Z13" s="78" t="s">
+      <c r="Z13" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="AA13" s="78">
+      <c r="AA13" s="84">
         <v>3</v>
       </c>
       <c r="AB13" s="56" t="s">
@@ -2886,9 +2912,9 @@
       <c r="C14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="85"/>
       <c r="AB14" s="56" t="s">
         <v>90</v>
       </c>
@@ -3022,7 +3048,7 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="69" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="64" t="s">
@@ -3041,18 +3067,18 @@
         <v>1</v>
       </c>
       <c r="J4" s="64"/>
-      <c r="K4" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
+      <c r="K4" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="44"/>
       <c r="S4" s="61"/>
@@ -3217,34 +3243,34 @@
       <c r="C11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="76" t="s">
+      <c r="Z11" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="AA11" s="74">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="72" t="s">
+      <c r="AA11" s="80">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="78" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="73"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="79"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" s="45"/>
-      <c r="Y13" s="78" t="s">
+      <c r="Y13" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="Z13" s="78" t="s">
+      <c r="Z13" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="AA13" s="78">
+      <c r="AA13" s="84">
         <v>3</v>
       </c>
       <c r="AB13" s="56" t="s">
@@ -3252,9 +3278,9 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="85"/>
       <c r="AB14" s="56" t="s">
         <v>90</v>
       </c>
@@ -3536,13 +3562,13 @@
       <c r="C11" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="Y11" s="69" t="s">
+      <c r="Y11" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="Z11" s="69" t="s">
+      <c r="Z11" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="AA11" s="69">
+      <c r="AA11" s="75">
         <v>15</v>
       </c>
       <c r="AB11" s="11" t="s">
@@ -3550,17 +3576,17 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
       <c r="AB12" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="77"/>
       <c r="AB13" s="11" t="s">
         <v>64</v>
       </c>
@@ -3858,24 +3884,24 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="76" t="s">
+      <c r="Z11" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="AA11" s="74">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="72" t="s">
+      <c r="AA11" s="80">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="78" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="73"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3899,7 +3925,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4264,16 +4290,16 @@
       <c r="U11" s="63"/>
       <c r="V11" s="63"/>
       <c r="W11" s="26"/>
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="76" t="s">
+      <c r="Z11" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="AA11" s="74">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="72" t="s">
+      <c r="AA11" s="80">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="78" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4291,10 +4317,10 @@
       <c r="U12" s="63"/>
       <c r="V12" s="63"/>
       <c r="W12" s="26"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="73"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="79"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
@@ -4324,13 +4350,13 @@
       <c r="U13" s="26"/>
       <c r="V13" s="26"/>
       <c r="W13" s="26"/>
-      <c r="Y13" s="69" t="s">
+      <c r="Y13" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="Z13" s="69" t="s">
+      <c r="Z13" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="AA13" s="69">
+      <c r="AA13" s="75">
         <v>3</v>
       </c>
       <c r="AB13" s="11" t="s">
@@ -4339,8 +4365,12 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>116</v>
+      </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -4361,105 +4391,111 @@
       <c r="U14" s="26"/>
       <c r="V14" s="26"/>
       <c r="W14" s="26"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="70"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
       <c r="AB14" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71"/>
+      <c r="C15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="77"/>
       <c r="AB15" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y16" s="80" t="s">
+      <c r="B16" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y16" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="Z16" s="80" t="s">
+      <c r="Z16" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="AA16" s="80">
+      <c r="AA16" s="86">
         <v>16</v>
       </c>
       <c r="AB16" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="87"/>
       <c r="AB17" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="81"/>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="87"/>
       <c r="AB18" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87"/>
       <c r="AB19" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="87"/>
       <c r="AB20" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y21" s="82"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="82"/>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="88"/>
       <c r="AB21" s="66" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y22" s="78" t="s">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="Y22" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="Z22" s="78" t="s">
+      <c r="Z22" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="AA22" s="78">
+      <c r="AA22" s="84">
         <v>3</v>
       </c>
       <c r="AB22" s="56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="79"/>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="85"/>
       <c r="AB23" s="56" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="Y16:Y21"/>
-    <mergeCell ref="Z16:Z21"/>
-    <mergeCell ref="AA16:AA21"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z12"/>
     <mergeCell ref="AA11:AA12"/>
@@ -4467,6 +4503,12 @@
     <mergeCell ref="Y13:Y15"/>
     <mergeCell ref="Z13:Z15"/>
     <mergeCell ref="AA13:AA15"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="Y16:Y21"/>
+    <mergeCell ref="Z16:Z21"/>
+    <mergeCell ref="AA16:AA21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E7:H7" location="MainKettleScreens!A1" display="B"/>
@@ -4747,16 +4789,16 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="76" t="s">
+      <c r="Z11" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="AA11" s="74">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="72" t="s">
+      <c r="AA11" s="80">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="78" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4784,10 +4826,10 @@
       <c r="U12" s="52"/>
       <c r="V12" s="52"/>
       <c r="W12" s="52"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="73"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="79"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17"/>
